--- a/ScrapeAnalysis/DataIntegrityAnalysis/Final Spec Examples.xlsx
+++ b/ScrapeAnalysis/DataIntegrityAnalysis/Final Spec Examples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Account Number" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Opening Balance: R2000
 - Payment Received: R300
@@ -70,23 +70,6 @@
   </si>
   <si>
     <t>Expected Account Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;datapair id = "001"&gt;
-   &lt;text&gt;Account Number&lt;/text&gt;
-   &lt;value&gt;123456789&lt;/value&gt;
-</t>
-  </si>
-  <si>
-    <t>Scraped XML Text-Value Pair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;datapair id = "001"&gt;
-   &lt;text&gt;Account Number&lt;/text&gt;
-   &lt;value&gt;987654321&lt;/value&gt;
-</t>
   </si>
   <si>
     <t>Scraped Text-Value Pairs</t>
@@ -120,6 +103,15 @@
    &lt;text&gt;Account Number&lt;/text&gt;
    &lt;value&gt;987654321&lt;/value&gt;</t>
   </si>
+  <si>
+    <t>Bak1234T</t>
+  </si>
+  <si>
+    <t>Account Number: Bak1234T</t>
+  </si>
+  <si>
+    <t>Account Number: bak1234t</t>
+  </si>
 </sst>
 </file>
 
@@ -129,7 +121,7 @@
     <numFmt numFmtId="6" formatCode="&quot;R&quot;\ #,##0;[Red]&quot;R&quot;\ \-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;R&quot;\ #,##0.00;[Red]&quot;R&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +133,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -221,11 +228,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,8 +542,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
+      <c r="A1" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
@@ -545,22 +553,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="69.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="16">
-        <v>123456789</v>
+      <c r="A2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="67.5" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="16">
-        <v>123456789</v>
+      <c r="A3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="16" t="b">
         <v>0</v>
@@ -568,6 +576,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -588,7 +597,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -642,7 +651,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -695,7 +704,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -798,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -823,7 +832,7 @@
     </row>
     <row r="2" spans="1:6" ht="114" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="b">
         <v>1</v>
@@ -831,7 +840,7 @@
     </row>
     <row r="3" spans="1:6" ht="111.75" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="b">
         <v>0</v>
@@ -839,16 +848,16 @@
     </row>
     <row r="4" spans="1:6" ht="105">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
